--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/205400.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/205400.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2258,25 +2258,25 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2385,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2645,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2905,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3165,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -3298,25 +3298,25 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>1</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3419,31 +3419,31 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3540,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>1</v>
@@ -3558,25 +3558,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" s="2" t="n">
         <v>1</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3685,25 +3685,25 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -3730,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -3818,25 +3818,25 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" s="2" t="n">
         <v>1</v>
@@ -3860,16 +3860,16 @@
         <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="2" t="inlineStr">
         <is>
@@ -3921,16 +3921,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -3987,16 +3987,16 @@
         <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -4054,16 +4054,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,31 +4078,31 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2" t="n">
         <v>0</v>
@@ -4114,22 +4114,22 @@
         <v>1</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="2" t="inlineStr">
         <is>
@@ -4175,61 +4175,61 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>2</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
       <c r="V29" t="n">
         <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4241,16 +4241,16 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -4265,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
@@ -4314,16 +4314,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4338,31 +4338,31 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
         <v>0</v>
@@ -4374,22 +4374,22 @@
         <v>1</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="2" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="2" t="inlineStr">
         <is>
@@ -4435,61 +4435,61 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
       <c r="V31" t="n">
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -4501,16 +4501,16 @@
         <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4525,16 +4525,16 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
@@ -4568,22 +4568,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4598,31 +4598,31 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
         <v>0</v>
@@ -4634,22 +4634,22 @@
         <v>1</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="2" t="inlineStr">
         <is>
@@ -4695,22 +4695,22 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -4719,37 +4719,37 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -4761,22 +4761,22 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4785,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
         <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
@@ -4828,22 +4828,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -4858,31 +4858,31 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2" t="n">
         <v>0</v>
@@ -4894,22 +4894,22 @@
         <v>1</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
         <v>0</v>
@@ -4918,16 +4918,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="2" t="inlineStr">
         <is>
@@ -4955,28 +4955,28 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4985,31 +4985,31 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5021,40 +5021,40 @@
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
         <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK35" t="n">
         <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -5088,22 +5088,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -5115,37 +5115,37 @@
         <v>0</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="2" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>1</v>
       </c>
       <c r="AA36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="2" t="n">
         <v>0</v>
@@ -5178,16 +5178,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="2" t="inlineStr">
         <is>
@@ -5215,22 +5215,22 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -5242,37 +5242,37 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -5281,22 +5281,22 @@
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
         <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>1</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK37" t="n">
         <v>1</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -5348,22 +5348,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5375,28 +5375,28 @@
         <v>0</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>1</v>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="2" t="n">
         <v>0</v>
@@ -5414,40 +5414,40 @@
         <v>1</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="2" t="inlineStr">
         <is>
@@ -5481,22 +5481,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5508,28 +5508,28 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" s="2" t="n">
         <v>1</v>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>0</v>
@@ -5547,19 +5547,19 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="2" t="n">
         <v>1</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="AH39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="2" t="inlineStr">
         <is>
@@ -5614,22 +5614,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5644,25 +5644,25 @@
         <v>1</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" s="2" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="2" t="n">
         <v>0</v>
@@ -5686,13 +5686,13 @@
         <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
         <v>1</v>
@@ -5701,19 +5701,19 @@
         <v>0</v>
       </c>
       <c r="AH40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="2" t="inlineStr">
         <is>
